--- a/Data/Rezultat_VerificareFacturi_09.10.2023.xlsx
+++ b/Data/Rezultat_VerificareFacturi_09.10.2023.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40758\Documents\UiPath\Verificare_facturi\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0BA43C-77C1-4786-A895-720D0BB28417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9942D299-2071-435A-A65C-8F3280F962B9}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99357EDE-0E50-470E-8255-3AA1DE898301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="0" activeTab="0" xr2:uid="{604A9654-F0F2-4604-BA42-DF4D45F6E431}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </x:ext>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -28,115 +29,214 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>CUI</t>
-  </si>
-  <si>
-    <t>Nume_client</t>
-  </si>
-  <si>
-    <t>Nr_factura</t>
-  </si>
-  <si>
-    <t>Data_factura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cod_Produs </t>
-  </si>
-  <si>
-    <t>Valoare_factura</t>
-  </si>
-  <si>
-    <t>Denumire client</t>
-  </si>
-  <si>
-    <t>Nr_factura_data</t>
-  </si>
-  <si>
-    <t>Observatii</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <x:si>
+    <x:t>Nume_client</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Denumire client</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nr_factura</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data_factura</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nr_factura_data</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cod_Produs </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valoare_factura</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Observatii</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> SC romprest srl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SC romprest srl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13213413</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.10.2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total de plata diferit pe factura.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SC GRM SRL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56345676</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.09.2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nume_client diferit pe factura.
+Nr si/sau data diferita pe factura.
+Total de plata diferit pe factura.
+Cod produs inexistent pe factura.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SC TESSA SRL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98766669</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01.10.2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01.09.2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 45234; 6451435</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nr si/sau data diferita pe factura.
+Total de plata diferit pe factura.</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="3">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="3">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="6" tint="0.39997558519241921"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:dxfs count="1">
+    <x:dxf>
+      <x:font>
+        <x:color theme="1"/>
+      </x:font>
+    </x:dxf>
+  </x:dxfs>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:I2" totalsRowShown="0">
+  <x:autoFilter ref="A1:I2"/>
+  <x:tableColumns count="9">
+    <x:tableColumn id="1" name="Nume_client" dataDxfId="0"/>
+    <x:tableColumn id="2" name="Denumire client" dataDxfId="0"/>
+    <x:tableColumn id="3" name="CUI" dataDxfId="0"/>
+    <x:tableColumn id="4" name="Nr_factura" dataDxfId="0"/>
+    <x:tableColumn id="5" name="Data_factura" dataDxfId="0"/>
+    <x:tableColumn id="6" name="Nr_factura_data" dataDxfId="0"/>
+    <x:tableColumn id="7" name="Cod_Produs " dataDxfId="0"/>
+    <x:tableColumn id="8" name="Valoare_factura" dataDxfId="0"/>
+    <x:tableColumn id="9" name="Observatii" dataDxfId="0"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,70 +535,143 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03975755-8736-4504-9469-BCFD0EBCF27B}">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K000000Clasificare BT: Uz Intern</oddFooter>
-  </headerFooter>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{E7E1E6AA-993A-45A5-BEE1-2447ECB43BA6}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:I1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="H14" sqref="H14"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="14.570312" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="17.425781" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.425781" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="14.285156" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="17.285156" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="14.140625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="17.140625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="12.285156" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:9">
+      <x:c r="A2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:9">
+      <x:c r="A3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I3" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9">
+      <x:c r="A4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I4" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId1"/>
+  </x:tableParts>
+</x:worksheet>
 </file>